--- a/build/web/WEB-INF/classes/Document/SampleData.xlsx
+++ b/build/web/WEB-INF/classes/Document/SampleData.xlsx
@@ -540,8 +540,8 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
